--- a/wks/czesci.xlsx
+++ b/wks/czesci.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Czujnik temperatury DS18B20 - interfejs OneWire</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Makeblock – czujnik linii V2.1</t>
+  </si>
+  <si>
+    <t>Stelarz do lutowania</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Ładowarka</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,12 +697,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="D21">
-        <f>SUM(D2:D20)</f>
+      <c r="D22">
+        <f>SUM(D2:D21)</f>
         <v>4033.71</v>
       </c>
     </row>

--- a/wks/czesci.xlsx
+++ b/wks/czesci.xlsx
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,9 +164,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -708,7 +716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -718,14 +726,68 @@
       <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="I18" s="2">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <f>I18*1.22</f>
+        <v>13.42</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <f>K18*J18</f>
+        <v>80.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="I19" s="2">
+        <v>455</v>
+      </c>
+      <c r="J19">
+        <f>I19*1.22</f>
+        <v>555.1</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <f>K19*J19</f>
+        <v>3330.6000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="L21">
+        <f>SUM(L18:L19)</f>
+        <v>3411.1200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="D22">
         <f>SUM(D2:D21)</f>
         <v>4033.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="L23">
+        <f>D12+D13</f>
+        <v>3706.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="L25">
+        <f>L23-L21</f>
+        <v>295.4399999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="L26">
+        <f>L25/L23</f>
+        <v>7.9707329707329605E-2</v>
       </c>
     </row>
   </sheetData>

--- a/wks/czesci.xlsx
+++ b/wks/czesci.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,7 +506,7 @@
         <f>B2*C2</f>
         <v>79.84</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -518,11 +518,11 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" si="0">B3*C3</f>
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -536,11 +536,11 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -553,13 +553,6 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
@@ -572,11 +565,11 @@
         <v>3.75</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>18.75</v>
+        <v>7.5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -589,12 +582,9 @@
       <c r="B7">
         <v>2.48</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>19.84</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -769,7 +759,7 @@
       </c>
       <c r="D22">
         <f>SUM(D2:D21)</f>
-        <v>4033.71</v>
+        <v>3948.62</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -799,9 +789,10 @@
     <hyperlink ref="E9" r:id="rId5"/>
     <hyperlink ref="E12" r:id="rId6"/>
     <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId9"/>
 </worksheet>
 </file>
 
